--- a/first_version_of_startup_registration.xlsx
+++ b/first_version_of_startup_registration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexguo/Desktop/registration-startup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE2715A-27AE-CF41-9486-0D3D2CDB8413}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF1F79B-DA8D-4242-82DE-5BABA6AE4412}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{7A531699-362B-4441-85EF-4C7351ECBF08}"/>
   </bookViews>
@@ -5003,8 +5003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBB07CDD-041E-4541-896F-8A00779811A6}">
   <dimension ref="A1:O245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="87" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="K61" zoomScale="89" workbookViewId="0">
+      <selection activeCell="A97" sqref="A97:XFD97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
